--- a/src/test/resources/excelTests/manifestUploadForecastWithConflictTpaAndTtt.xlsx
+++ b/src/test/resources/excelTests/manifestUploadForecastWithConflictTpaAndTtt.xlsx
@@ -2336,7 +2336,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="48" t="n">
-        <v>43933.0</v>
+        <v>43936.0</v>
       </c>
       <c r="C3" s="49" t="n">
         <v>0.4375</v>
@@ -2348,7 +2348,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="51" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="G3" s="52" t="n">
         <v>0.6458333333333334</v>
@@ -2364,7 +2364,7 @@
         <v>106</v>
       </c>
       <c r="N3" s="58" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O3" s="59" t="n">
         <v>0.4583333333333333</v>
@@ -2376,7 +2376,7 @@
         <v>129</v>
       </c>
       <c r="R3" s="61" t="n">
-        <v>43949.0</v>
+        <v>43952.0</v>
       </c>
       <c r="S3" s="62" t="n">
         <v>0.4166666666666667</v>
@@ -2405,7 +2405,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="67" t="n">
-        <v>43930.0</v>
+        <v>43933.0</v>
       </c>
       <c r="C4" s="68" t="n">
         <v>0.4791666666666667</v>
@@ -2417,7 +2417,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="70" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G4" s="71" t="n">
         <v>0.7291666666666666</v>
@@ -2429,7 +2429,7 @@
         <v>109</v>
       </c>
       <c r="J4" s="31" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K4" s="33" t="n">
         <v>0.5277777777777778</v>
@@ -2441,7 +2441,7 @@
         <v>106</v>
       </c>
       <c r="N4" s="74" t="n">
-        <v>43937.0</v>
+        <v>43940.0</v>
       </c>
       <c r="O4" s="75" t="n">
         <v>0.7083333333333334</v>
@@ -2453,7 +2453,7 @@
         <v>131</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>43941.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S4" s="76" t="n">
         <v>0.5</v>
@@ -2479,7 +2479,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="78" t="n">
-        <v>43928.0</v>
+        <v>43931.0</v>
       </c>
       <c r="C5" s="79" t="n">
         <v>0.3541666666666667</v>
@@ -2491,7 +2491,7 @@
         <v>110</v>
       </c>
       <c r="F5" s="81" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G5" s="82" t="n">
         <v>0.4375</v>
@@ -2503,7 +2503,7 @@
         <v>109</v>
       </c>
       <c r="J5" s="85" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K5" s="86" t="n">
         <v>0.5277777777777778</v>
@@ -2519,7 +2519,7 @@
         <v>129</v>
       </c>
       <c r="R5" s="92" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S5" s="93" t="n">
         <v>0.7083333333333334</v>
@@ -2545,7 +2545,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="67" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="C6" s="68" t="n">
         <v>0.4791666666666667</v>
@@ -2557,7 +2557,7 @@
         <v>108</v>
       </c>
       <c r="F6" s="70" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G6" s="71" t="n">
         <v>0.5</v>
@@ -2569,7 +2569,7 @@
         <v>109</v>
       </c>
       <c r="J6" s="31" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K6" s="33" t="n">
         <v>0.5277777777777778</v>
@@ -2581,7 +2581,7 @@
         <v>106</v>
       </c>
       <c r="N6" s="74" t="n">
-        <v>43937.0</v>
+        <v>43940.0</v>
       </c>
       <c r="O6" s="75" t="n">
         <v>0.7083333333333334</v>
@@ -2593,7 +2593,7 @@
         <v>131</v>
       </c>
       <c r="R6" s="32" t="n">
-        <v>43941.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S6" s="76" t="n">
         <v>0.5</v>
@@ -2619,7 +2619,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="78" t="n">
-        <v>43928.0</v>
+        <v>43931.0</v>
       </c>
       <c r="C7" s="79" t="n">
         <v>0.3541666666666667</v>
@@ -2631,7 +2631,7 @@
         <v>108</v>
       </c>
       <c r="F7" s="81" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G7" s="82" t="n">
         <v>0.4166666666666667</v>
@@ -2643,7 +2643,7 @@
         <v>109</v>
       </c>
       <c r="J7" s="85" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K7" s="86" t="n">
         <v>0.5277777777777778</v>
@@ -2659,7 +2659,7 @@
         <v>129</v>
       </c>
       <c r="R7" s="92" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S7" s="93" t="n">
         <v>0.7083333333333334</v>
@@ -2685,7 +2685,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="67" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="C8" s="68" t="n">
         <v>0.4791666666666667</v>
@@ -2697,7 +2697,7 @@
         <v>108</v>
       </c>
       <c r="F8" s="70" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G8" s="71" t="n">
         <v>0.5</v>
@@ -2709,7 +2709,7 @@
         <v>109</v>
       </c>
       <c r="J8" s="101" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K8" s="102" t="n">
         <v>0.3611111111111111</v>
@@ -2721,7 +2721,7 @@
         <v>106</v>
       </c>
       <c r="N8" s="74" t="n">
-        <v>43937.0</v>
+        <v>43940.0</v>
       </c>
       <c r="O8" s="75" t="n">
         <v>0.6666666666666666</v>
@@ -2733,7 +2733,7 @@
         <v>131</v>
       </c>
       <c r="R8" s="32" t="n">
-        <v>43941.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S8" s="76" t="n">
         <v>0.5</v>
@@ -2759,7 +2759,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="78" t="n">
-        <v>43930.0</v>
+        <v>43933.0</v>
       </c>
       <c r="C9" s="79" t="n">
         <v>0.3541666666666667</v>
@@ -2771,7 +2771,7 @@
         <v>110</v>
       </c>
       <c r="F9" s="81" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G9" s="82" t="n">
         <v>0.4166666666666667</v>
@@ -2786,11 +2786,11 @@
       <c r="M9" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="N9" s="88">
-        <v>43931</v>
-      </c>
-      <c r="O9" s="89">
-        <v>0.66666666666666663</v>
+      <c r="N9" s="88" t="n">
+        <v>43940.0</v>
+      </c>
+      <c r="O9" s="89" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="P9" s="105" t="s">
         <v>154</v>
@@ -2799,7 +2799,7 @@
         <v>129</v>
       </c>
       <c r="R9" s="92" t="n">
-        <v>43941.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S9" s="93" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadForecastWithConflictTpaAndTtt.xlsx
+++ b/src/test/resources/excelTests/manifestUploadForecastWithConflictTpaAndTtt.xlsx
@@ -2336,7 +2336,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="48" t="n">
-        <v>43936.0</v>
+        <v>43942.0</v>
       </c>
       <c r="C3" s="49" t="n">
         <v>0.4375</v>
@@ -2348,7 +2348,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="51" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="G3" s="52" t="n">
         <v>0.6458333333333334</v>
@@ -2364,7 +2364,7 @@
         <v>106</v>
       </c>
       <c r="N3" s="58" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O3" s="59" t="n">
         <v>0.4583333333333333</v>
@@ -2376,7 +2376,7 @@
         <v>129</v>
       </c>
       <c r="R3" s="61" t="n">
-        <v>43952.0</v>
+        <v>43958.0</v>
       </c>
       <c r="S3" s="62" t="n">
         <v>0.4166666666666667</v>
@@ -2405,7 +2405,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="67" t="n">
-        <v>43933.0</v>
+        <v>43939.0</v>
       </c>
       <c r="C4" s="68" t="n">
         <v>0.4791666666666667</v>
@@ -2417,7 +2417,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="70" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G4" s="71" t="n">
         <v>0.7291666666666666</v>
@@ -2429,7 +2429,7 @@
         <v>109</v>
       </c>
       <c r="J4" s="31" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K4" s="33" t="n">
         <v>0.5277777777777778</v>
@@ -2441,7 +2441,7 @@
         <v>106</v>
       </c>
       <c r="N4" s="74" t="n">
-        <v>43940.0</v>
+        <v>43946.0</v>
       </c>
       <c r="O4" s="75" t="n">
         <v>0.7083333333333334</v>
@@ -2453,7 +2453,7 @@
         <v>131</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>43944.0</v>
+        <v>43950.0</v>
       </c>
       <c r="S4" s="76" t="n">
         <v>0.5</v>
@@ -2479,7 +2479,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="78" t="n">
-        <v>43931.0</v>
+        <v>43937.0</v>
       </c>
       <c r="C5" s="79" t="n">
         <v>0.3541666666666667</v>
@@ -2491,7 +2491,7 @@
         <v>110</v>
       </c>
       <c r="F5" s="81" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G5" s="82" t="n">
         <v>0.4375</v>
@@ -2503,7 +2503,7 @@
         <v>109</v>
       </c>
       <c r="J5" s="85" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K5" s="86" t="n">
         <v>0.5277777777777778</v>
@@ -2519,7 +2519,7 @@
         <v>129</v>
       </c>
       <c r="R5" s="92" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S5" s="93" t="n">
         <v>0.7083333333333334</v>
@@ -2545,7 +2545,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="67" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="C6" s="68" t="n">
         <v>0.4791666666666667</v>
@@ -2557,7 +2557,7 @@
         <v>108</v>
       </c>
       <c r="F6" s="70" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G6" s="71" t="n">
         <v>0.5</v>
@@ -2569,7 +2569,7 @@
         <v>109</v>
       </c>
       <c r="J6" s="31" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K6" s="33" t="n">
         <v>0.5277777777777778</v>
@@ -2581,7 +2581,7 @@
         <v>106</v>
       </c>
       <c r="N6" s="74" t="n">
-        <v>43940.0</v>
+        <v>43946.0</v>
       </c>
       <c r="O6" s="75" t="n">
         <v>0.7083333333333334</v>
@@ -2593,7 +2593,7 @@
         <v>131</v>
       </c>
       <c r="R6" s="32" t="n">
-        <v>43944.0</v>
+        <v>43950.0</v>
       </c>
       <c r="S6" s="76" t="n">
         <v>0.5</v>
@@ -2619,7 +2619,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="78" t="n">
-        <v>43931.0</v>
+        <v>43937.0</v>
       </c>
       <c r="C7" s="79" t="n">
         <v>0.3541666666666667</v>
@@ -2631,7 +2631,7 @@
         <v>108</v>
       </c>
       <c r="F7" s="81" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G7" s="82" t="n">
         <v>0.4166666666666667</v>
@@ -2643,7 +2643,7 @@
         <v>109</v>
       </c>
       <c r="J7" s="85" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K7" s="86" t="n">
         <v>0.5277777777777778</v>
@@ -2659,7 +2659,7 @@
         <v>129</v>
       </c>
       <c r="R7" s="92" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S7" s="93" t="n">
         <v>0.7083333333333334</v>
@@ -2685,7 +2685,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="67" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="C8" s="68" t="n">
         <v>0.4791666666666667</v>
@@ -2697,7 +2697,7 @@
         <v>108</v>
       </c>
       <c r="F8" s="70" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G8" s="71" t="n">
         <v>0.5</v>
@@ -2709,7 +2709,7 @@
         <v>109</v>
       </c>
       <c r="J8" s="101" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K8" s="102" t="n">
         <v>0.3611111111111111</v>
@@ -2721,7 +2721,7 @@
         <v>106</v>
       </c>
       <c r="N8" s="74" t="n">
-        <v>43940.0</v>
+        <v>43946.0</v>
       </c>
       <c r="O8" s="75" t="n">
         <v>0.6666666666666666</v>
@@ -2733,7 +2733,7 @@
         <v>131</v>
       </c>
       <c r="R8" s="32" t="n">
-        <v>43944.0</v>
+        <v>43950.0</v>
       </c>
       <c r="S8" s="76" t="n">
         <v>0.5</v>
@@ -2759,7 +2759,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="78" t="n">
-        <v>43933.0</v>
+        <v>43939.0</v>
       </c>
       <c r="C9" s="79" t="n">
         <v>0.3541666666666667</v>
@@ -2771,7 +2771,7 @@
         <v>110</v>
       </c>
       <c r="F9" s="81" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G9" s="82" t="n">
         <v>0.4166666666666667</v>
@@ -2787,7 +2787,7 @@
         <v>106</v>
       </c>
       <c r="N9" s="88" t="n">
-        <v>43940.0</v>
+        <v>43946.0</v>
       </c>
       <c r="O9" s="89" t="n">
         <v>0.6666666666666666</v>
@@ -2799,7 +2799,7 @@
         <v>129</v>
       </c>
       <c r="R9" s="92" t="n">
-        <v>43944.0</v>
+        <v>43950.0</v>
       </c>
       <c r="S9" s="93" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadForecastWithConflictTpaAndTtt.xlsx
+++ b/src/test/resources/excelTests/manifestUploadForecastWithConflictTpaAndTtt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9685FE-88F5-4EF6-8289-E6E0010BF58A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANIFESTS" sheetId="4" r:id="rId1"/>
@@ -21,7 +22,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -563,7 +564,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -2185,34 +2186,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="4" sqref="R4:R9 N3:N9 J4:J8 F3:F9 B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2335,10 +2336,10 @@
       <c r="A3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="48" t="n">
-        <v>43942.0</v>
-      </c>
-      <c r="C3" s="49" t="n">
+      <c r="B3" s="48">
+        <v>44003</v>
+      </c>
+      <c r="C3" s="49">
         <v>0.4375</v>
       </c>
       <c r="D3" s="49" t="s">
@@ -2347,11 +2348,11 @@
       <c r="E3" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="51" t="n">
-        <v>43943.0</v>
-      </c>
-      <c r="G3" s="52" t="n">
-        <v>0.6458333333333334</v>
+      <c r="F3" s="51">
+        <v>44004</v>
+      </c>
+      <c r="G3" s="52">
+        <v>0.64583333333333337</v>
       </c>
       <c r="H3" s="83" t="s">
         <v>137</v>
@@ -2363,11 +2364,11 @@
       <c r="M3" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="N3" s="58" t="n">
-        <v>43945.0</v>
-      </c>
-      <c r="O3" s="59" t="n">
-        <v>0.4583333333333333</v>
+      <c r="N3" s="58">
+        <v>44006</v>
+      </c>
+      <c r="O3" s="59">
+        <v>0.45833333333333331</v>
       </c>
       <c r="P3" s="90" t="s">
         <v>104</v>
@@ -2375,11 +2376,11 @@
       <c r="Q3" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="61" t="n">
-        <v>43958.0</v>
-      </c>
-      <c r="S3" s="62" t="n">
-        <v>0.4166666666666667</v>
+      <c r="R3" s="61">
+        <v>44019</v>
+      </c>
+      <c r="S3" s="62">
+        <v>0.41666666666666669</v>
       </c>
       <c r="T3" s="63" t="s">
         <v>96</v>
@@ -2404,11 +2405,11 @@
       <c r="A4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="67" t="n">
-        <v>43939.0</v>
-      </c>
-      <c r="C4" s="68" t="n">
-        <v>0.4791666666666667</v>
+      <c r="B4" s="67">
+        <v>44000</v>
+      </c>
+      <c r="C4" s="68">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>102</v>
@@ -2416,11 +2417,11 @@
       <c r="E4" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="70" t="n">
-        <v>43940.0</v>
-      </c>
-      <c r="G4" s="71" t="n">
-        <v>0.7291666666666666</v>
+      <c r="F4" s="70">
+        <v>44001</v>
+      </c>
+      <c r="G4" s="71">
+        <v>0.72916666666666663</v>
       </c>
       <c r="H4" s="72" t="s">
         <v>138</v>
@@ -2428,11 +2429,11 @@
       <c r="I4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="31" t="n">
-        <v>43943.0</v>
-      </c>
-      <c r="K4" s="33" t="n">
-        <v>0.5277777777777778</v>
+      <c r="J4" s="31">
+        <v>44004</v>
+      </c>
+      <c r="K4" s="33">
+        <v>0.52777777777777779</v>
       </c>
       <c r="L4" s="98" t="s">
         <v>136</v>
@@ -2440,11 +2441,11 @@
       <c r="M4" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="74" t="n">
-        <v>43946.0</v>
-      </c>
-      <c r="O4" s="75" t="n">
-        <v>0.7083333333333334</v>
+      <c r="N4" s="74">
+        <v>44007</v>
+      </c>
+      <c r="O4" s="75">
+        <v>0.70833333333333337</v>
       </c>
       <c r="P4" s="104" t="s">
         <v>105</v>
@@ -2452,10 +2453,10 @@
       <c r="Q4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="R4" s="32" t="n">
-        <v>43950.0</v>
-      </c>
-      <c r="S4" s="76" t="n">
+      <c r="R4" s="32">
+        <v>44011</v>
+      </c>
+      <c r="S4" s="76">
         <v>0.5</v>
       </c>
       <c r="T4" s="27" t="s">
@@ -2478,11 +2479,11 @@
       <c r="A5" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="78" t="n">
-        <v>43937.0</v>
-      </c>
-      <c r="C5" s="79" t="n">
-        <v>0.3541666666666667</v>
+      <c r="B5" s="78">
+        <v>43998</v>
+      </c>
+      <c r="C5" s="79">
+        <v>0.35416666666666669</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>102</v>
@@ -2490,10 +2491,10 @@
       <c r="E5" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="81" t="n">
-        <v>43940.0</v>
-      </c>
-      <c r="G5" s="82" t="n">
+      <c r="F5" s="81">
+        <v>44001</v>
+      </c>
+      <c r="G5" s="82">
         <v>0.4375</v>
       </c>
       <c r="H5" s="83" t="s">
@@ -2502,11 +2503,11 @@
       <c r="I5" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="85" t="n">
-        <v>43943.0</v>
-      </c>
-      <c r="K5" s="86" t="n">
-        <v>0.5277777777777778</v>
+      <c r="J5" s="85">
+        <v>44004</v>
+      </c>
+      <c r="K5" s="86">
+        <v>0.52777777777777779</v>
       </c>
       <c r="L5" s="99" t="s">
         <v>139</v>
@@ -2518,11 +2519,11 @@
       <c r="Q5" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="R5" s="92" t="n">
-        <v>43944.0</v>
-      </c>
-      <c r="S5" s="93" t="n">
-        <v>0.7083333333333334</v>
+      <c r="R5" s="92">
+        <v>44005</v>
+      </c>
+      <c r="S5" s="93">
+        <v>0.70833333333333337</v>
       </c>
       <c r="T5" s="94" t="s">
         <v>98</v>
@@ -2544,11 +2545,11 @@
       <c r="A6" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="67" t="n">
-        <v>43940.0</v>
-      </c>
-      <c r="C6" s="68" t="n">
-        <v>0.4791666666666667</v>
+      <c r="B6" s="67">
+        <v>44001</v>
+      </c>
+      <c r="C6" s="68">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D6" s="68" t="s">
         <v>140</v>
@@ -2556,10 +2557,10 @@
       <c r="E6" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="70" t="n">
-        <v>43940.0</v>
-      </c>
-      <c r="G6" s="71" t="n">
+      <c r="F6" s="70">
+        <v>44001</v>
+      </c>
+      <c r="G6" s="71">
         <v>0.5</v>
       </c>
       <c r="H6" s="72" t="s">
@@ -2568,11 +2569,11 @@
       <c r="I6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="31" t="n">
-        <v>43943.0</v>
-      </c>
-      <c r="K6" s="33" t="n">
-        <v>0.5277777777777778</v>
+      <c r="J6" s="31">
+        <v>44004</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0.52777777777777779</v>
       </c>
       <c r="L6" s="98" t="s">
         <v>151</v>
@@ -2580,11 +2581,11 @@
       <c r="M6" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="N6" s="74" t="n">
-        <v>43946.0</v>
-      </c>
-      <c r="O6" s="75" t="n">
-        <v>0.7083333333333334</v>
+      <c r="N6" s="74">
+        <v>44007</v>
+      </c>
+      <c r="O6" s="75">
+        <v>0.70833333333333337</v>
       </c>
       <c r="P6" s="104" t="s">
         <v>151</v>
@@ -2592,10 +2593,10 @@
       <c r="Q6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="R6" s="32" t="n">
-        <v>43950.0</v>
-      </c>
-      <c r="S6" s="76" t="n">
+      <c r="R6" s="32">
+        <v>44011</v>
+      </c>
+      <c r="S6" s="76">
         <v>0.5</v>
       </c>
       <c r="T6" s="27" t="s">
@@ -2618,11 +2619,11 @@
       <c r="A7" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="78" t="n">
-        <v>43937.0</v>
-      </c>
-      <c r="C7" s="79" t="n">
-        <v>0.3541666666666667</v>
+      <c r="B7" s="78">
+        <v>43998</v>
+      </c>
+      <c r="C7" s="79">
+        <v>0.35416666666666669</v>
       </c>
       <c r="D7" s="79" t="s">
         <v>143</v>
@@ -2630,11 +2631,11 @@
       <c r="E7" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="81" t="n">
-        <v>43940.0</v>
-      </c>
-      <c r="G7" s="82" t="n">
-        <v>0.4166666666666667</v>
+      <c r="F7" s="81">
+        <v>44001</v>
+      </c>
+      <c r="G7" s="82">
+        <v>0.41666666666666669</v>
       </c>
       <c r="H7" s="83" t="s">
         <v>153</v>
@@ -2642,11 +2643,11 @@
       <c r="I7" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="85" t="n">
-        <v>43943.0</v>
-      </c>
-      <c r="K7" s="86" t="n">
-        <v>0.5277777777777778</v>
+      <c r="J7" s="85">
+        <v>44004</v>
+      </c>
+      <c r="K7" s="86">
+        <v>0.52777777777777779</v>
       </c>
       <c r="L7" s="99" t="s">
         <v>150</v>
@@ -2658,11 +2659,11 @@
       <c r="Q7" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="R7" s="92" t="n">
-        <v>43944.0</v>
-      </c>
-      <c r="S7" s="93" t="n">
-        <v>0.7083333333333334</v>
+      <c r="R7" s="92">
+        <v>44005</v>
+      </c>
+      <c r="S7" s="93">
+        <v>0.70833333333333337</v>
       </c>
       <c r="T7" s="94" t="s">
         <v>142</v>
@@ -2684,11 +2685,11 @@
       <c r="A8" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="67" t="n">
-        <v>43940.0</v>
-      </c>
-      <c r="C8" s="68" t="n">
-        <v>0.4791666666666667</v>
+      <c r="B8" s="67">
+        <v>44001</v>
+      </c>
+      <c r="C8" s="68">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D8" s="68" t="s">
         <v>145</v>
@@ -2696,10 +2697,10 @@
       <c r="E8" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="70" t="n">
-        <v>43940.0</v>
-      </c>
-      <c r="G8" s="71" t="n">
+      <c r="F8" s="70">
+        <v>44001</v>
+      </c>
+      <c r="G8" s="71">
         <v>0.5</v>
       </c>
       <c r="H8" s="72" t="s">
@@ -2708,10 +2709,10 @@
       <c r="I8" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="101" t="n">
-        <v>43943.0</v>
-      </c>
-      <c r="K8" s="102" t="n">
+      <c r="J8" s="101">
+        <v>44004</v>
+      </c>
+      <c r="K8" s="102">
         <v>0.3611111111111111</v>
       </c>
       <c r="L8" s="103" t="s">
@@ -2720,11 +2721,11 @@
       <c r="M8" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="74" t="n">
-        <v>43946.0</v>
-      </c>
-      <c r="O8" s="75" t="n">
-        <v>0.6666666666666666</v>
+      <c r="N8" s="74">
+        <v>44007</v>
+      </c>
+      <c r="O8" s="75">
+        <v>0.66666666666666663</v>
       </c>
       <c r="P8" s="104" t="s">
         <v>152</v>
@@ -2732,10 +2733,10 @@
       <c r="Q8" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="R8" s="32" t="n">
-        <v>43950.0</v>
-      </c>
-      <c r="S8" s="76" t="n">
+      <c r="R8" s="32">
+        <v>44011</v>
+      </c>
+      <c r="S8" s="76">
         <v>0.5</v>
       </c>
       <c r="T8" s="27" t="s">
@@ -2758,11 +2759,11 @@
       <c r="A9" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="78" t="n">
-        <v>43939.0</v>
-      </c>
-      <c r="C9" s="79" t="n">
-        <v>0.3541666666666667</v>
+      <c r="B9" s="78">
+        <v>44000</v>
+      </c>
+      <c r="C9" s="79">
+        <v>0.35416666666666669</v>
       </c>
       <c r="D9" s="79" t="s">
         <v>144</v>
@@ -2770,11 +2771,11 @@
       <c r="E9" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="81" t="n">
-        <v>43940.0</v>
-      </c>
-      <c r="G9" s="82" t="n">
-        <v>0.4166666666666667</v>
+      <c r="F9" s="81">
+        <v>44001</v>
+      </c>
+      <c r="G9" s="82">
+        <v>0.41666666666666669</v>
       </c>
       <c r="H9" s="83" t="s">
         <v>147</v>
@@ -2786,11 +2787,11 @@
       <c r="M9" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="N9" s="88" t="n">
-        <v>43946.0</v>
-      </c>
-      <c r="O9" s="89" t="n">
-        <v>0.6666666666666666</v>
+      <c r="N9" s="88">
+        <v>44007</v>
+      </c>
+      <c r="O9" s="89">
+        <v>0.66666666666666663</v>
       </c>
       <c r="P9" s="105" t="s">
         <v>154</v>
@@ -2798,11 +2799,11 @@
       <c r="Q9" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="R9" s="92" t="n">
-        <v>43950.0</v>
-      </c>
-      <c r="S9" s="93" t="n">
-        <v>0.7083333333333334</v>
+      <c r="R9" s="92">
+        <v>44011</v>
+      </c>
+      <c r="S9" s="93">
+        <v>0.70833333333333337</v>
       </c>
       <c r="T9" s="94" t="s">
         <v>149</v>
@@ -3250,9 +3251,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3261,11 +3262,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,7 +3346,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D2"/>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
@@ -3356,7 +3357,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{2422F177-28FB-44CF-A4DE-B7E2DAB6F9D1}">
@@ -3404,7 +3405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:I1247"/>
   <sheetViews>
@@ -3415,12 +3416,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -17267,7 +17268,7 @@
       <c r="I1247" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="9">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="G1:G2"/>
@@ -17284,7 +17285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:J1387"/>
   <sheetViews>
@@ -17295,13 +17296,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -34069,7 +34070,7 @@
       <c r="J1387" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="10">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
@@ -34087,9 +34088,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -34097,8 +34098,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="6" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -34313,11 +34314,11 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/src/test/resources/excelTests/manifestUploadForecastWithConflictTpaAndTtt.xlsx
+++ b/src/test/resources/excelTests/manifestUploadForecastWithConflictTpaAndTtt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9685FE-88F5-4EF6-8289-E6E0010BF58A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFE8AB9-920E-47A3-A36E-E96172A90CB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -46,7 +46,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -1475,8 +1475,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="61">
     <dxf>
@@ -2192,7 +2192,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="4" sqref="R4:R9 N3:N9 J4:J8 F3:F9 B3:B9"/>
+      <selection pane="bottomLeft" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,7 +2337,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="48">
-        <v>44003</v>
+        <v>44128</v>
       </c>
       <c r="C3" s="49">
         <v>0.4375</v>
@@ -2349,7 +2349,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="51">
-        <v>44004</v>
+        <v>44129</v>
       </c>
       <c r="G3" s="52">
         <v>0.64583333333333337</v>
@@ -2365,7 +2365,7 @@
         <v>106</v>
       </c>
       <c r="N3" s="58">
-        <v>44006</v>
+        <v>44131</v>
       </c>
       <c r="O3" s="59">
         <v>0.45833333333333331</v>
@@ -2377,7 +2377,7 @@
         <v>129</v>
       </c>
       <c r="R3" s="61">
-        <v>44019</v>
+        <v>44144</v>
       </c>
       <c r="S3" s="62">
         <v>0.41666666666666669</v>
@@ -2406,7 +2406,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="67">
-        <v>44000</v>
+        <v>44125</v>
       </c>
       <c r="C4" s="68">
         <v>0.47916666666666669</v>
@@ -2418,7 +2418,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="70">
-        <v>44001</v>
+        <v>44126</v>
       </c>
       <c r="G4" s="71">
         <v>0.72916666666666663</v>
@@ -2430,7 +2430,7 @@
         <v>109</v>
       </c>
       <c r="J4" s="31">
-        <v>44004</v>
+        <v>44129</v>
       </c>
       <c r="K4" s="33">
         <v>0.52777777777777779</v>
@@ -2442,7 +2442,7 @@
         <v>106</v>
       </c>
       <c r="N4" s="74">
-        <v>44007</v>
+        <v>44132</v>
       </c>
       <c r="O4" s="75">
         <v>0.70833333333333337</v>
@@ -2454,7 +2454,7 @@
         <v>131</v>
       </c>
       <c r="R4" s="32">
-        <v>44011</v>
+        <v>44136</v>
       </c>
       <c r="S4" s="76">
         <v>0.5</v>
@@ -2480,7 +2480,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="78">
-        <v>43998</v>
+        <v>44123</v>
       </c>
       <c r="C5" s="79">
         <v>0.35416666666666669</v>
@@ -2492,7 +2492,7 @@
         <v>110</v>
       </c>
       <c r="F5" s="81">
-        <v>44001</v>
+        <v>44126</v>
       </c>
       <c r="G5" s="82">
         <v>0.4375</v>
@@ -2504,7 +2504,7 @@
         <v>109</v>
       </c>
       <c r="J5" s="85">
-        <v>44004</v>
+        <v>44129</v>
       </c>
       <c r="K5" s="86">
         <v>0.52777777777777779</v>
@@ -2513,14 +2513,16 @@
         <v>139</v>
       </c>
       <c r="M5" s="87"/>
-      <c r="N5" s="88"/>
+      <c r="N5" s="88">
+        <v>125</v>
+      </c>
       <c r="O5" s="89"/>
       <c r="P5" s="105"/>
       <c r="Q5" s="91" t="s">
         <v>129</v>
       </c>
       <c r="R5" s="92">
-        <v>44005</v>
+        <v>44130</v>
       </c>
       <c r="S5" s="93">
         <v>0.70833333333333337</v>
@@ -2546,7 +2548,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="67">
-        <v>44001</v>
+        <v>44126</v>
       </c>
       <c r="C6" s="68">
         <v>0.47916666666666669</v>
@@ -2558,7 +2560,7 @@
         <v>108</v>
       </c>
       <c r="F6" s="70">
-        <v>44001</v>
+        <v>44126</v>
       </c>
       <c r="G6" s="71">
         <v>0.5</v>
@@ -2570,7 +2572,7 @@
         <v>109</v>
       </c>
       <c r="J6" s="31">
-        <v>44004</v>
+        <v>44129</v>
       </c>
       <c r="K6" s="33">
         <v>0.52777777777777779</v>
@@ -2582,7 +2584,7 @@
         <v>106</v>
       </c>
       <c r="N6" s="74">
-        <v>44007</v>
+        <v>44132</v>
       </c>
       <c r="O6" s="75">
         <v>0.70833333333333337</v>
@@ -2594,7 +2596,7 @@
         <v>131</v>
       </c>
       <c r="R6" s="32">
-        <v>44011</v>
+        <v>44136</v>
       </c>
       <c r="S6" s="76">
         <v>0.5</v>
@@ -2620,7 +2622,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="78">
-        <v>43998</v>
+        <v>44123</v>
       </c>
       <c r="C7" s="79">
         <v>0.35416666666666669</v>
@@ -2632,7 +2634,7 @@
         <v>108</v>
       </c>
       <c r="F7" s="81">
-        <v>44001</v>
+        <v>44126</v>
       </c>
       <c r="G7" s="82">
         <v>0.41666666666666669</v>
@@ -2644,7 +2646,7 @@
         <v>109</v>
       </c>
       <c r="J7" s="85">
-        <v>44004</v>
+        <v>44129</v>
       </c>
       <c r="K7" s="86">
         <v>0.52777777777777779</v>
@@ -2653,14 +2655,16 @@
         <v>150</v>
       </c>
       <c r="M7" s="87"/>
-      <c r="N7" s="88"/>
+      <c r="N7" s="88">
+        <v>125</v>
+      </c>
       <c r="O7" s="89"/>
       <c r="P7" s="105"/>
       <c r="Q7" s="91" t="s">
         <v>129</v>
       </c>
       <c r="R7" s="92">
-        <v>44005</v>
+        <v>44130</v>
       </c>
       <c r="S7" s="93">
         <v>0.70833333333333337</v>
@@ -2686,7 +2690,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="67">
-        <v>44001</v>
+        <v>44126</v>
       </c>
       <c r="C8" s="68">
         <v>0.47916666666666669</v>
@@ -2698,7 +2702,7 @@
         <v>108</v>
       </c>
       <c r="F8" s="70">
-        <v>44001</v>
+        <v>44126</v>
       </c>
       <c r="G8" s="71">
         <v>0.5</v>
@@ -2710,7 +2714,7 @@
         <v>109</v>
       </c>
       <c r="J8" s="101">
-        <v>44004</v>
+        <v>44129</v>
       </c>
       <c r="K8" s="102">
         <v>0.3611111111111111</v>
@@ -2722,7 +2726,7 @@
         <v>106</v>
       </c>
       <c r="N8" s="74">
-        <v>44007</v>
+        <v>44132</v>
       </c>
       <c r="O8" s="75">
         <v>0.66666666666666663</v>
@@ -2734,7 +2738,7 @@
         <v>131</v>
       </c>
       <c r="R8" s="32">
-        <v>44011</v>
+        <v>44136</v>
       </c>
       <c r="S8" s="76">
         <v>0.5</v>
@@ -2760,7 +2764,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="78">
-        <v>44000</v>
+        <v>44125</v>
       </c>
       <c r="C9" s="79">
         <v>0.35416666666666669</v>
@@ -2772,7 +2776,7 @@
         <v>110</v>
       </c>
       <c r="F9" s="81">
-        <v>44001</v>
+        <v>44126</v>
       </c>
       <c r="G9" s="82">
         <v>0.41666666666666669</v>
@@ -2788,7 +2792,7 @@
         <v>106</v>
       </c>
       <c r="N9" s="88">
-        <v>44007</v>
+        <v>44132</v>
       </c>
       <c r="O9" s="89">
         <v>0.66666666666666663</v>
@@ -2800,7 +2804,7 @@
         <v>129</v>
       </c>
       <c r="R9" s="92">
-        <v>44011</v>
+        <v>44136</v>
       </c>
       <c r="S9" s="93">
         <v>0.70833333333333337</v>
